--- a/data/trans_orig/P2C_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2882</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8131</v>
+        <v>7863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004250639578995733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001212980274999481</v>
+        <v>0.001206001099466766</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01199057653647312</v>
+        <v>0.0115961529846966</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>7346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3079</v>
+        <v>2856</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16859</v>
+        <v>16256</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0073457215373302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003078655876615312</v>
+        <v>0.002855457633844717</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01685730273585175</v>
+        <v>0.01625488014701222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>10229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4731</v>
+        <v>5077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19208</v>
+        <v>19484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006095099599971124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002819243733607663</v>
+        <v>0.003025180491124107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01144584228644139</v>
+        <v>0.01161004565768993</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>675221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>669972</v>
+        <v>670240</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>677280</v>
+        <v>677285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9957493604210043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9880094234635269</v>
+        <v>0.9884038470153034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9987870197250005</v>
+        <v>0.9987939989005332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>974</v>
@@ -836,19 +836,19 @@
         <v>992743</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>983230</v>
+        <v>983833</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>997010</v>
+        <v>997233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9926542784626698</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9831426972641482</v>
+        <v>0.9837451198529881</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9969213441233846</v>
+        <v>0.9971445423661552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1662</v>
@@ -857,19 +857,19 @@
         <v>1667963</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1658984</v>
+        <v>1658708</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1673461</v>
+        <v>1673115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9939049004000289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9885541577135586</v>
+        <v>0.98838995434231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971807562663924</v>
+        <v>0.9969748195088759</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4538</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12226</v>
+        <v>14276</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004826415472115237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009570988238588626</v>
+        <v>0.0009596143627284324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01300339674839626</v>
+        <v>0.01518371813822525</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>6225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1963</v>
+        <v>2437</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14200</v>
+        <v>13856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00615678830706688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001941573974107712</v>
+        <v>0.002410466521506677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01404404609927566</v>
+        <v>0.01370402848475227</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>10763</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4767</v>
+        <v>5027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21453</v>
+        <v>20381</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005515768868060243</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002442826713882071</v>
+        <v>0.002576002849378208</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01099402112839941</v>
+        <v>0.01044481496061671</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>935670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>927982</v>
+        <v>925932</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>939308</v>
+        <v>939306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9951735845278847</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869966032516048</v>
+        <v>0.9848162818617756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990429011761411</v>
+        <v>0.9990403856372716</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>977</v>
@@ -1053,19 +1053,19 @@
         <v>1004877</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>996902</v>
+        <v>997246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009139</v>
+        <v>1008665</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9938432116929331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9859559539007243</v>
+        <v>0.9862959715152476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9980584260258923</v>
+        <v>0.9975895334784933</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1892</v>
@@ -1074,19 +1074,19 @@
         <v>1940547</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929857</v>
+        <v>1930929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1946543</v>
+        <v>1946283</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944842311319397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9890059788716006</v>
+        <v>0.9895551850393827</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997557173286118</v>
+        <v>0.9974239971506217</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>3636</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>864</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8216</v>
+        <v>10087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0124546519609793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00296087896760349</v>
+        <v>0.003583880758622493</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02814545691308829</v>
+        <v>0.03455453125670133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9445</v>
+        <v>10345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01431409085692888</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003515484663078157</v>
+        <v>0.003527946443456355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03255092273965429</v>
+        <v>0.0356514009247815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>7789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3159</v>
+        <v>3770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14632</v>
+        <v>16499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01338158726182705</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005427379340362637</v>
+        <v>0.006476731758402555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02513670459345016</v>
+        <v>0.02834438422947299</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>288279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>283699</v>
+        <v>281828</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291051</v>
+        <v>290869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9875453480390207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9718545430869118</v>
+        <v>0.9654454687432986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970391210323966</v>
+        <v>0.9964161192413775</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>269</v>
@@ -1270,19 +1270,19 @@
         <v>286018</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>280727</v>
+        <v>279827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289152</v>
+        <v>289148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9856859091430711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9674490772603457</v>
+        <v>0.964348599075218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9964845153369218</v>
+        <v>0.9964720535565437</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>541</v>
@@ -1291,19 +1291,19 @@
         <v>574297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>567454</v>
+        <v>565587</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>578927</v>
+        <v>578316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.986618412738173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9748632954065498</v>
+        <v>0.9716556157705268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9945726206596374</v>
+        <v>0.9935232682415974</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005787746679611067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1416,19 +1416,19 @@
         <v>17725</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007701984857692248</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1437,19 +1437,19 @@
         <v>28781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006833754870650357</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1899170</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1890181</v>
+        <v>1889283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1905057</v>
+        <v>1904720</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.994212253320389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9895063671740678</v>
+        <v>0.9890365872718346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9972940134299524</v>
+        <v>0.9971177045270209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2220</v>
@@ -1487,19 +1487,19 @@
         <v>2283637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2272457</v>
+        <v>2271998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2291443</v>
+        <v>2291123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9922980151423078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9874399021139859</v>
+        <v>0.9872405174790297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9956899712730487</v>
+        <v>0.9955508471214786</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4095</v>
@@ -1508,19 +1508,19 @@
         <v>4182807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4169129</v>
+        <v>4169075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4192396</v>
+        <v>4192183</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9931662451293496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9899184742466285</v>
+        <v>0.9899057632526346</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9954431303054065</v>
+        <v>0.9953924746749514</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>3990</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1069</v>
+        <v>985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10425</v>
+        <v>9832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005565102888977384</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001491332387766161</v>
+        <v>0.001374458113009843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01454044212900848</v>
+        <v>0.01371238980449981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -1872,19 +1872,19 @@
         <v>9076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4226</v>
+        <v>4184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18593</v>
+        <v>16558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008543645926379052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003977687083794323</v>
+        <v>0.003938975739489327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01750248506347752</v>
+        <v>0.01558674062405787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -1893,19 +1893,19 @@
         <v>13066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6707</v>
+        <v>6903</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22117</v>
+        <v>22890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007343399860666827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003769364972311617</v>
+        <v>0.003879699685124462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01242982900041795</v>
+        <v>0.01286466922036235</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>713008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>706573</v>
+        <v>707166</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>715929</v>
+        <v>716013</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9944348971110226</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9854595578709936</v>
+        <v>0.9862876101955015</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985086676122339</v>
+        <v>0.9986255418869902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>984</v>
@@ -1943,19 +1943,19 @@
         <v>1053235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1043718</v>
+        <v>1045753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1058085</v>
+        <v>1058127</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.991456354073621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9824975149365223</v>
+        <v>0.9844132593759422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9960223129162057</v>
+        <v>0.9960610242605107</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1644</v>
@@ -1964,19 +1964,19 @@
         <v>1766243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1757192</v>
+        <v>1756419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1772602</v>
+        <v>1772406</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9926566001393332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9875701709995811</v>
+        <v>0.9871353307796377</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962306350276882</v>
+        <v>0.9961203003148759</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>3042</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8367</v>
+        <v>8737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002626154601450976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0008045869899949783</v>
+        <v>0.0008086086226214596</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007224643458081155</v>
+        <v>0.007543624664951388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -2089,19 +2089,19 @@
         <v>9963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4761</v>
+        <v>4956</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18214</v>
+        <v>19186</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008422702806664063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004025277339654749</v>
+        <v>0.004189353898868613</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01539836302383563</v>
+        <v>0.01621960768301335</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2110,19 +2110,19 @@
         <v>13005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7177</v>
+        <v>7112</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22964</v>
+        <v>23303</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00555502583192846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003065590575631339</v>
+        <v>0.003037987835357663</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009809278647113362</v>
+        <v>0.009954030729926342</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1155129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1149804</v>
+        <v>1149434</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1157239</v>
+        <v>1157234</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.997373845398549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9927753565419188</v>
+        <v>0.9924563753350492</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.999195413010005</v>
+        <v>0.9991913913773786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1097</v>
@@ -2160,19 +2160,19 @@
         <v>1172922</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1164671</v>
+        <v>1163699</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1178124</v>
+        <v>1177929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.991577297193336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9846016369761643</v>
+        <v>0.9837803923169864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9959747226603451</v>
+        <v>0.9958106461011313</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2189</v>
@@ -2181,19 +2181,19 @@
         <v>2328051</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2318092</v>
+        <v>2317753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2333879</v>
+        <v>2333944</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944449741680715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9901907213528865</v>
+        <v>0.9900459692700736</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9969344094243686</v>
+        <v>0.9969620121646423</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>9669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4608</v>
+        <v>4655</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18688</v>
+        <v>19850</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03724829810502898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01775162653250104</v>
+        <v>0.01793353534674175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07199327285573813</v>
+        <v>0.0764694644708391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -2306,19 +2306,19 @@
         <v>9580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4446</v>
+        <v>4063</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18889</v>
+        <v>18406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03567755447608718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01655829606980218</v>
+        <v>0.0151326103913873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07034451294738436</v>
+        <v>0.06854414662498137</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2327,19 +2327,19 @@
         <v>19249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10791</v>
+        <v>11646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30911</v>
+        <v>32800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03644962215078429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02043293025370856</v>
+        <v>0.02205205957371435</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05853196345738061</v>
+        <v>0.06210892182918405</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>249909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>240890</v>
+        <v>239728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>254970</v>
+        <v>254923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9627517018949711</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9280067271442619</v>
+        <v>0.9235305355291609</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9822483734674989</v>
+        <v>0.9820664646532582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -2377,19 +2377,19 @@
         <v>258944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>249635</v>
+        <v>250118</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>264078</v>
+        <v>264461</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9643224455239128</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9296554870526155</v>
+        <v>0.9314558533750186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.983441703930197</v>
+        <v>0.9848673896086126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>458</v>
@@ -2398,19 +2398,19 @@
         <v>508852</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>497190</v>
+        <v>495301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>517310</v>
+        <v>516455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9635503778492157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9414680365426197</v>
+        <v>0.9378910781708161</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9795670697462916</v>
+        <v>0.9779479404262856</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>16701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9708</v>
+        <v>9823</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28745</v>
+        <v>29455</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007823191007460496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004547651123188552</v>
+        <v>0.00460148216150098</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01346508328943158</v>
+        <v>0.01379794670388261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2523,19 +2523,19 @@
         <v>28619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18592</v>
+        <v>17868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43036</v>
+        <v>40932</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0113852643358057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007396298669008294</v>
+        <v>0.007108124791954235</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01712030580981883</v>
+        <v>0.01628351536622615</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -2544,19 +2544,19 @@
         <v>45320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31015</v>
+        <v>32167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59413</v>
+        <v>61759</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009749429704661125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006672000154530256</v>
+        <v>0.006919985732180394</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01278126747421782</v>
+        <v>0.01328583262250944</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2118045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2106001</v>
+        <v>2105291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2125038</v>
+        <v>2124923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921768089925395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9865349167105684</v>
+        <v>0.9862020532961173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9954523488768114</v>
+        <v>0.995398517838499</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2315</v>
@@ -2594,19 +2594,19 @@
         <v>2485101</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2470684</v>
+        <v>2472788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2495128</v>
+        <v>2495852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9886147356641943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9828796941901811</v>
+        <v>0.9837164846337731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9926037013309916</v>
+        <v>0.992891875208045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4291</v>
@@ -2615,19 +2615,19 @@
         <v>4603146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4589053</v>
+        <v>4586707</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4617451</v>
+        <v>4616299</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9902505702953389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872187325257821</v>
+        <v>0.9867141673774905</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9933279998454697</v>
+        <v>0.9930800142678196</v>
       </c>
     </row>
     <row r="15">
@@ -2961,16 +2961,16 @@
         <v>802</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7483</v>
+        <v>7274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005324918823379407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001546573173153733</v>
+        <v>0.001548264089599876</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01443829394011745</v>
+        <v>0.01403538453685761</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2979,19 +2979,19 @@
         <v>4865</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11484</v>
+        <v>12393</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006192554501227771</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001628257083121828</v>
+        <v>0.001620927580021492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01461906668634362</v>
+        <v>0.01577610594619825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3000,19 +3000,19 @@
         <v>7624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3181</v>
+        <v>3528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14971</v>
+        <v>16277</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005847678679299165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002439679821799224</v>
+        <v>0.002706272349815389</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01148229062545882</v>
+        <v>0.01248418196705115</v>
       </c>
     </row>
     <row r="5">
@@ -3029,7 +3029,7 @@
         <v>515490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>510767</v>
+        <v>510976</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>517448</v>
@@ -3038,10 +3038,10 @@
         <v>0.9946750811766206</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855617060598826</v>
+        <v>0.9859646154631424</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984534268268462</v>
+        <v>0.9984517359104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>690</v>
@@ -3050,19 +3050,19 @@
         <v>780694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>774075</v>
+        <v>773166</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>784280</v>
+        <v>784286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9938074454987722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9853809333136563</v>
+        <v>0.9842238940538017</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9983717429168781</v>
+        <v>0.9983790724199786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1226</v>
@@ -3071,19 +3071,19 @@
         <v>1296186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1288839</v>
+        <v>1287533</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300629</v>
+        <v>1300282</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9941523213207009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9885177093745408</v>
+        <v>0.9875158180329487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9975603201782006</v>
+        <v>0.9972937276501846</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>11682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6107</v>
+        <v>5989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20669</v>
+        <v>20785</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01060125748867501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005542258938354937</v>
+        <v>0.005434952286816542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01875649640983817</v>
+        <v>0.01886173157354703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3196,19 +3196,19 @@
         <v>7145</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3014</v>
+        <v>3074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14251</v>
+        <v>14792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005796748064326772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002445187481400453</v>
+        <v>0.002493842216260375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01156220379791273</v>
+        <v>0.01200153371934519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3217,19 +3217,19 @@
         <v>18827</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11676</v>
+        <v>11623</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29885</v>
+        <v>29636</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008064608576697401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005001706822196838</v>
+        <v>0.004978654190233826</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01280173310129088</v>
+        <v>0.01269467749296341</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1090260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1081273</v>
+        <v>1081157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1095835</v>
+        <v>1095953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.989398742511325</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9812435035901612</v>
+        <v>0.9811382684264528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944577410616449</v>
+        <v>0.9945650477131833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1179</v>
@@ -3267,19 +3267,19 @@
         <v>1225400</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1218294</v>
+        <v>1217753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1229531</v>
+        <v>1229471</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9942032519356733</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9884377962020872</v>
+        <v>0.9879984662806547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9975548125185996</v>
+        <v>0.9975061577837396</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2218</v>
@@ -3288,19 +3288,19 @@
         <v>2315660</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2304602</v>
+        <v>2304851</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2322811</v>
+        <v>2322864</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9919353914233026</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9871982668987096</v>
+        <v>0.9873053225070365</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949982931778032</v>
+        <v>0.9950213458097661</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>3177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9727</v>
+        <v>8559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01183867919470123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003677369609712667</v>
+        <v>0.003636452850216681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03625084213254456</v>
+        <v>0.03189597875523312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3413,19 +3413,19 @@
         <v>10530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5511</v>
+        <v>5173</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17805</v>
+        <v>18329</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03370353284615185</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01764101603096172</v>
+        <v>0.01655790366704529</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05698987766117913</v>
+        <v>0.05866787997568338</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3434,19 +3434,19 @@
         <v>13706</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7293</v>
+        <v>7726</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22165</v>
+        <v>22629</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02360111262825925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01255829569539356</v>
+        <v>0.01330309735504127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03816612129985592</v>
+        <v>0.03896578827051821</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>265152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258602</v>
+        <v>259770</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>267342</v>
+        <v>267353</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9881613208052987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9637491578674559</v>
+        <v>0.9681040212447669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963226303902873</v>
+        <v>0.9963635471497833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -3484,19 +3484,19 @@
         <v>301890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>294615</v>
+        <v>294091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306909</v>
+        <v>307247</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9662964671538481</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.943010122338821</v>
+        <v>0.9413321200243158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9823589839690383</v>
+        <v>0.9834420963329543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>529</v>
@@ -3505,19 +3505,19 @@
         <v>567043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>558584</v>
+        <v>558120</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>573456</v>
+        <v>573023</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9763988873717407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9618338787001443</v>
+        <v>0.9610342117294818</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9874417043046065</v>
+        <v>0.9866969026449585</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>17618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10571</v>
+        <v>10667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28776</v>
+        <v>27974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009329136072126262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005597576249330589</v>
+        <v>0.005648494897444224</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01523755131775772</v>
+        <v>0.01481258531947335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -3630,19 +3630,19 @@
         <v>22539</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15219</v>
+        <v>14719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35878</v>
+        <v>33250</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009671228306116799</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006530105032344288</v>
+        <v>0.00631587070819909</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01539484628784234</v>
+        <v>0.01426738277821861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -3651,19 +3651,19 @@
         <v>40157</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28812</v>
+        <v>28258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56090</v>
+        <v>54289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00951810163633671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00682894571977156</v>
+        <v>0.006697784082525954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01329449410652458</v>
+        <v>0.01286757501811493</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1870903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1859745</v>
+        <v>1860547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1877950</v>
+        <v>1877854</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9906708639278737</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9847624486822418</v>
+        <v>0.9851874146805266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944024237506693</v>
+        <v>0.9943515051025558</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2156</v>
@@ -3701,19 +3701,19 @@
         <v>2307985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2294646</v>
+        <v>2297274</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2315305</v>
+        <v>2315805</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9903287716938832</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9846051537121562</v>
+        <v>0.9857326172217816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9934698949676556</v>
+        <v>0.9936841292918009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3973</v>
@@ -3722,19 +3722,19 @@
         <v>4178888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4162955</v>
+        <v>4164756</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4190233</v>
+        <v>4190787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904818983636633</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9867055058934752</v>
+        <v>0.9871324249818849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9931710542802283</v>
+        <v>0.993302215917474</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>38387</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30119</v>
+        <v>29931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48043</v>
+        <v>48330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3061663542114851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2402265119633424</v>
+        <v>0.2387257551184827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3831819654678762</v>
+        <v>0.3854721344543775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -4086,19 +4086,19 @@
         <v>88886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78925</v>
+        <v>78421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100550</v>
+        <v>101243</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3210708735295144</v>
+        <v>0.3210708735295145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2850914254768003</v>
+        <v>0.2832681870035987</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3632051352403894</v>
+        <v>0.3657059208327496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -4107,19 +4107,19 @@
         <v>127273</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>113471</v>
+        <v>112085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142139</v>
+        <v>141948</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3164248742961323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2821105260995828</v>
+        <v>0.2786662503786955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3533849041064817</v>
+        <v>0.3529116880045574</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>86992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77336</v>
+        <v>77049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95260</v>
+        <v>95448</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6938336457885148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6168180345321242</v>
+        <v>0.6145278655456224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7597734880366578</v>
+        <v>0.7612742448815173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>320</v>
@@ -4157,19 +4157,19 @@
         <v>187956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176292</v>
+        <v>175599</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197917</v>
+        <v>198421</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6789291264704856</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6367948647596104</v>
+        <v>0.6342940791672504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7149085745231997</v>
+        <v>0.7167318129964011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>433</v>
@@ -4178,19 +4178,19 @@
         <v>274948</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260082</v>
+        <v>260273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>288750</v>
+        <v>290136</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6835751257038676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6466150958935183</v>
+        <v>0.6470883119954427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7178894739004172</v>
+        <v>0.7213337496213047</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>34260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24514</v>
+        <v>23971</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45544</v>
+        <v>46448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09968501191275041</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07132830281506032</v>
+        <v>0.06974660048085136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1325181481761822</v>
+        <v>0.135147455159072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -4303,19 +4303,19 @@
         <v>31021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23622</v>
+        <v>23686</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41571</v>
+        <v>40673</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07609390572100033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05794582803537136</v>
+        <v>0.05810295856833032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1019733960383566</v>
+        <v>0.09977192737713686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -4324,19 +4324,19 @@
         <v>65281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53465</v>
+        <v>51962</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81419</v>
+        <v>81171</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08688503718678516</v>
+        <v>0.08688503718678517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07115885412989063</v>
+        <v>0.06915820366413569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1083649398811083</v>
+        <v>0.1080336787988675</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>309423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298139</v>
+        <v>297235</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>319169</v>
+        <v>319712</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9003149880872494</v>
+        <v>0.9003149880872496</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8674818518238178</v>
+        <v>0.8648525448409279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9286716971849396</v>
+        <v>0.9302533995191486</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>468</v>
@@ -4374,19 +4374,19 @@
         <v>376641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366091</v>
+        <v>366989</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>384040</v>
+        <v>383976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9239060942789995</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8980266039616434</v>
+        <v>0.9002280726228632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9420541719646287</v>
+        <v>0.9418970414316697</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>744</v>
@@ -4395,19 +4395,19 @@
         <v>686064</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>669926</v>
+        <v>670174</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>697880</v>
+        <v>699383</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9131149628132149</v>
+        <v>0.9131149628132148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8916350601188917</v>
+        <v>0.8919663212011324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9288411458701095</v>
+        <v>0.9308417963358643</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>12181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5504</v>
+        <v>5324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24948</v>
+        <v>25063</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1340168170608486</v>
+        <v>0.1340168170608485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06055317982112918</v>
+        <v>0.05857800252693936</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.274473155601402</v>
+        <v>0.2757399049161192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4520,19 +4520,19 @@
         <v>10966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6780</v>
+        <v>6784</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16523</v>
+        <v>16905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056249854559696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06530603256523432</v>
+        <v>0.0653435566965639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1591494849898415</v>
+        <v>0.1628324868466477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -4541,19 +4541,19 @@
         <v>23147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14724</v>
+        <v>15638</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36194</v>
+        <v>39055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1188784991687367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07561911671105159</v>
+        <v>0.08031226650963462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1858832709264452</v>
+        <v>0.2005795117983072</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>78713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>65946</v>
+        <v>65831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>85390</v>
+        <v>85570</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8659831829391514</v>
+        <v>0.8659831829391513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7255268443985982</v>
+        <v>0.7242600950838814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9394468201788708</v>
+        <v>0.9414219974730607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -4591,19 +4591,19 @@
         <v>92854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87297</v>
+        <v>86915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97040</v>
+        <v>97036</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8943750145440305</v>
+        <v>0.8943750145440303</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8408505150101585</v>
+        <v>0.8371675131533528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9346939674347656</v>
+        <v>0.9346564433034359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>190</v>
@@ -4612,19 +4612,19 @@
         <v>171566</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>158519</v>
+        <v>155658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>179989</v>
+        <v>179075</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8811215008312632</v>
+        <v>0.8811215008312633</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8141167290735547</v>
+        <v>0.7994204882016925</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9243808832889485</v>
+        <v>0.9196877334903653</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>84828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69479</v>
+        <v>70867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103664</v>
+        <v>104556</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1514909106872088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1240799448950396</v>
+        <v>0.1265589555563436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1851293533820008</v>
+        <v>0.1867220852714042</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>246</v>
@@ -4737,19 +4737,19 @@
         <v>130872</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115768</v>
+        <v>116046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148582</v>
+        <v>147497</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1660135077770501</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1468537107071563</v>
+        <v>0.1472064651711945</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1884780482627434</v>
+        <v>0.1871014110087715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>356</v>
@@ -4758,19 +4758,19 @@
         <v>215701</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190916</v>
+        <v>190964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>240238</v>
+        <v>241604</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1599821057462685</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1415995583267383</v>
+        <v>0.1416353428920592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1781807560924269</v>
+        <v>0.1791941979613555</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>475128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>456292</v>
+        <v>455400</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>490477</v>
+        <v>489089</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8485090893127913</v>
+        <v>0.8485090893127912</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8148706466179991</v>
+        <v>0.8132779147285956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8759200551049603</v>
+        <v>0.8734410444436566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>908</v>
@@ -4808,19 +4808,19 @@
         <v>657452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639742</v>
+        <v>640827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>672556</v>
+        <v>672278</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.83398649222295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8115219517372566</v>
+        <v>0.8128985889912287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8531462892928439</v>
+        <v>0.8527935348288057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1367</v>
@@ -4829,19 +4829,19 @@
         <v>1132579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1108042</v>
+        <v>1106676</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1157364</v>
+        <v>1157316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8400178942537315</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8218192439075732</v>
+        <v>0.8208058020386444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.858400441673262</v>
+        <v>0.8583646571079407</v>
       </c>
     </row>
     <row r="15">
